--- a/xlsx/国际先驱论坛报_intext.xlsx
+++ b/xlsx/国际先驱论坛报_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>日報</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_国际先驱论坛报</t>
+    <t>日报</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_国际先驱论坛报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_New_York_Times_Company</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E6%9C%9F%E5%88%8A%E8%99%9F</t>
   </si>
   <si>
-    <t>國際標準期刊號</t>
+    <t>国际标准期刊号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E6%97%B6%E6%8A%A5</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
